--- a/src/resource/account/accountdb.xlsx
+++ b/src/resource/account/accountdb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="balancesheet" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1256">
   <si>
     <t>流动资产</t>
   </si>
@@ -4094,55 +4094,56 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>其他不涉及现金收支的投资和筹资活动金额</t>
+  </si>
+  <si>
+    <t>amount of other investment and financing activities that do not involve cash payments</t>
+  </si>
+  <si>
+    <t>beginperiodcash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:现金的期初余额</t>
+  </si>
+  <si>
+    <t>endperiodcashequivalent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginperiodcashequivalen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>减：现金等价物的期初余额</t>
+  </si>
+  <si>
+    <t>cashequivalentnetincome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overallsalestab</t>
+  </si>
+  <si>
+    <t>overallcosttab</t>
+  </si>
+  <si>
+    <t>opsprofittab</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>beginperiodcash</t>
+  </si>
+  <si>
+    <t>endperiodcash</t>
+  </si>
+  <si>
     <t>financeleasefixedasset</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他不涉及现金收支的投资和筹资活动金额</t>
-  </si>
-  <si>
-    <t>amount of other investment and financing activities that do not involve cash payments</t>
-  </si>
-  <si>
-    <t>endperiodcash</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginperiodcash</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>减:现金的期初余额</t>
-  </si>
-  <si>
-    <t>endperiodcashequivalent</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginperiodcashequivalen</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>减：现金等价物的期初余额</t>
-  </si>
-  <si>
-    <t>cashequivalentnetincome</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>overallsalestab</t>
-  </si>
-  <si>
-    <t>overallcosttab</t>
-  </si>
-  <si>
-    <t>opsprofittab</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>profit</t>
   </si>
 </sst>
 </file>
@@ -4583,13 +4584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E125" sqref="C125:E125"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
@@ -7461,14 +7463,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
@@ -7545,7 +7547,7 @@
         <v>379</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>565</v>
@@ -7916,7 +7918,7 @@
         <v>384</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>565</v>
@@ -8440,7 +8442,7 @@
         <v>315</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>565</v>
@@ -8635,13 +8637,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>565</v>
@@ -9132,14 +9134,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:C136"/>
+    <sheetView topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10578,6 +10580,9 @@
       <c r="B86" t="s">
         <v>1069</v>
       </c>
+      <c r="C86" t="s">
+        <v>1067</v>
+      </c>
       <c r="D86" t="s">
         <v>564</v>
       </c>
@@ -10609,6 +10614,9 @@
       <c r="B88" t="s">
         <v>440</v>
       </c>
+      <c r="C88" t="s">
+        <v>1070</v>
+      </c>
       <c r="D88" t="s">
         <v>564</v>
       </c>
@@ -10708,6 +10716,9 @@
       <c r="B94" t="s">
         <v>333</v>
       </c>
+      <c r="C94" t="s">
+        <v>1075</v>
+      </c>
       <c r="D94" t="s">
         <v>564</v>
       </c>
@@ -11585,6 +11596,9 @@
       <c r="B146" t="s">
         <v>1152</v>
       </c>
+      <c r="C146" t="s">
+        <v>1150</v>
+      </c>
       <c r="D146" t="s">
         <v>564</v>
       </c>
@@ -12416,7 +12430,7 @@
         <v>463</v>
       </c>
       <c r="C195" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="D195" t="s">
         <v>564</v>
@@ -12427,10 +12441,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B196" t="s">
         <v>1241</v>
       </c>
-      <c r="B196" t="s">
-        <v>1242</v>
+      <c r="C196" t="s">
+        <v>1255</v>
       </c>
       <c r="D196" t="s">
         <v>564</v>
@@ -12447,7 +12464,7 @@
         <v>464</v>
       </c>
       <c r="C197" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="D197" t="s">
         <v>564</v>
@@ -12464,7 +12481,7 @@
         <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D198" t="s">
         <v>564</v>
@@ -12475,13 +12492,13 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B199" t="s">
         <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="D199" t="s">
         <v>564</v>
@@ -12498,7 +12515,7 @@
         <v>466</v>
       </c>
       <c r="C200" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D200" t="s">
         <v>564</v>
@@ -12515,7 +12532,7 @@
         <v>467</v>
       </c>
       <c r="C201" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D201" t="s">
         <v>564</v>
@@ -12526,13 +12543,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B202" t="s">
         <v>467</v>
       </c>
       <c r="C202" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D202" t="s">
         <v>564</v>
@@ -12549,7 +12566,7 @@
         <v>338</v>
       </c>
       <c r="C203" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D203" t="s">
         <v>564</v>
@@ -12566,7 +12583,7 @@
         <v>338</v>
       </c>
       <c r="C204" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D204" t="s">
         <v>564</v>

--- a/src/resource/account/accountdb.xlsx
+++ b/src/resource/account/accountdb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="12270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="balancesheet" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1258">
   <si>
     <t>流动资产</t>
   </si>
@@ -1582,9 +1582,6 @@
     <t>subtotalcurrentasset</t>
   </si>
   <si>
-    <t>noncurrentasset</t>
-  </si>
-  <si>
     <t>loanpayment</t>
   </si>
   <si>
@@ -1664,9 +1661,6 @@
   </si>
   <si>
     <t>totalasset</t>
-  </si>
-  <si>
-    <t>currentliability</t>
   </si>
   <si>
     <t>stloan</t>
@@ -1749,10 +1743,6 @@
     <t>payinterestincash</t>
   </si>
   <si>
-    <t>currentasset</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>存放中央银行款</t>
   </si>
   <si>
@@ -2186,10 +2176,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>noncurrentliability</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ltborrow</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2236,10 +2222,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>equity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>capitalstock</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2831,10 +2813,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>eps</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>basiceps</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2865,10 +2843,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>opsactcashflow</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>goodsservicecash</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3429,10 +3403,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>invcashflow</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>收回投资所收到的现金</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3595,10 +3565,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>financialcashflow</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>吸收投资收到的现金</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3699,10 +3665,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>notes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>foreignexhratechgcase</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4122,15 +4084,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>overallsalestab</t>
-  </si>
-  <si>
-    <t>overallcosttab</t>
-  </si>
-  <si>
-    <t>opsprofittab</t>
-  </si>
-  <si>
     <t>利润</t>
   </si>
   <si>
@@ -4144,6 +4097,51 @@
   </si>
   <si>
     <t>financeleasefixedasset</t>
+  </si>
+  <si>
+    <t>hdecimal3</t>
+  </si>
+  <si>
+    <t>bs_currentasset</t>
+  </si>
+  <si>
+    <t>bs_noncurrentasset</t>
+  </si>
+  <si>
+    <t>bs_currentliability</t>
+  </si>
+  <si>
+    <t>bs_noncurrentliability</t>
+  </si>
+  <si>
+    <t>bs_ownerequity</t>
+  </si>
+  <si>
+    <t>is_eps</t>
+  </si>
+  <si>
+    <t>is_profit</t>
+  </si>
+  <si>
+    <t>is_opsprofit</t>
+  </si>
+  <si>
+    <t>is_overallcost</t>
+  </si>
+  <si>
+    <t>is_overallsales</t>
+  </si>
+  <si>
+    <t>cf_opsactcashflow</t>
+  </si>
+  <si>
+    <t>cf_invcashflow</t>
+  </si>
+  <si>
+    <t>cf_financialcashflow</t>
+  </si>
+  <si>
+    <t>cf_notes</t>
   </si>
 </sst>
 </file>
@@ -4584,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4599,33 +4597,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -4634,28 +4632,28 @@
         <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -4669,10 +4667,10 @@
         <v>475</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>570</v>
+        <v>1244</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4687,7 +4685,7 @@
         <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4695,16 +4693,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4715,13 +4713,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
         <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4729,16 +4727,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4746,16 +4744,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -4772,7 +4770,7 @@
         <v>489</v>
       </c>
       <c r="D11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -4780,16 +4778,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -4797,16 +4795,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -4814,16 +4812,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C14" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -4831,16 +4829,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4848,16 +4846,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4874,7 +4872,7 @@
         <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -4891,7 +4889,7 @@
         <v>491</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -4902,13 +4900,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -4916,16 +4914,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C20" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4933,16 +4931,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4959,7 +4957,7 @@
         <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -4976,7 +4974,7 @@
         <v>495</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -4993,7 +4991,7 @@
         <v>496</v>
       </c>
       <c r="D24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -5010,7 +5008,7 @@
         <v>497</v>
       </c>
       <c r="D25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -5027,7 +5025,7 @@
         <v>498</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -5044,7 +5042,7 @@
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -5061,7 +5059,7 @@
         <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -5078,7 +5076,7 @@
         <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -5086,16 +5084,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -5112,7 +5110,7 @@
         <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -5129,7 +5127,7 @@
         <v>503</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -5146,7 +5144,7 @@
         <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -5163,7 +5161,7 @@
         <v>505</v>
       </c>
       <c r="D34" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -5180,7 +5178,7 @@
         <v>506</v>
       </c>
       <c r="D35" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -5197,7 +5195,7 @@
         <v>507</v>
       </c>
       <c r="D36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -5214,7 +5212,7 @@
         <v>508</v>
       </c>
       <c r="D37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -5231,7 +5229,7 @@
         <v>509</v>
       </c>
       <c r="D38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -5248,7 +5246,7 @@
         <v>510</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -5265,7 +5263,7 @@
         <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -5282,7 +5280,7 @@
         <v>513</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -5299,7 +5297,7 @@
         <v>514</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -5313,10 +5311,10 @@
         <v>476</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>515</v>
+        <v>1245</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -5328,10 +5326,10 @@
         <v>350</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -5345,10 +5343,10 @@
         <v>255</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -5362,10 +5360,10 @@
         <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -5379,10 +5377,10 @@
         <v>257</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -5396,10 +5394,10 @@
         <v>258</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -5407,16 +5405,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B49" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C49" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5430,10 +5428,10 @@
         <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5447,10 +5445,10 @@
         <v>259</v>
       </c>
       <c r="C51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -5464,10 +5462,10 @@
         <v>260</v>
       </c>
       <c r="C52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -5481,10 +5479,10 @@
         <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D53" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -5492,16 +5490,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B54" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C54" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D54" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -5515,10 +5513,10 @@
         <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -5532,10 +5530,10 @@
         <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -5546,13 +5544,13 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -5566,10 +5564,10 @@
         <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D58" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -5583,10 +5581,10 @@
         <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D59" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -5600,10 +5598,10 @@
         <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D60" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E60">
         <v>20</v>
@@ -5617,10 +5615,10 @@
         <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -5634,10 +5632,10 @@
         <v>351</v>
       </c>
       <c r="C62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D62" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -5651,10 +5649,10 @@
         <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -5668,10 +5666,10 @@
         <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E64">
         <v>20</v>
@@ -5685,10 +5683,10 @@
         <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -5702,10 +5700,10 @@
         <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -5719,10 +5717,10 @@
         <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E67">
         <v>20</v>
@@ -5736,10 +5734,10 @@
         <v>352</v>
       </c>
       <c r="C68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D68" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E68">
         <v>20</v>
@@ -5753,10 +5751,10 @@
         <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D69" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -5764,16 +5762,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C70" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D70" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -5781,16 +5779,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B71" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C71" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D71" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E71">
         <v>20</v>
@@ -5798,16 +5796,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B72" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C72" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -5815,16 +5813,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B73" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C73" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D73" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -5838,10 +5836,10 @@
         <v>473</v>
       </c>
       <c r="C74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -5849,16 +5847,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B75" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C75" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -5872,10 +5870,10 @@
         <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D76" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -5889,10 +5887,10 @@
         <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D77" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -5906,10 +5904,10 @@
         <v>477</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>543</v>
+        <v>1246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E78" s="2"/>
     </row>
@@ -5921,10 +5919,10 @@
         <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -5938,10 +5936,10 @@
         <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -5949,16 +5947,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B81" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C81" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -5966,16 +5964,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B82" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C82" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -5983,16 +5981,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B83" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C83" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -6006,10 +6004,10 @@
         <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -6023,10 +6021,10 @@
         <v>355</v>
       </c>
       <c r="C85" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -6034,16 +6032,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B86" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C86" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -6051,16 +6049,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B87" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C87" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -6074,10 +6072,10 @@
         <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D88" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -6091,10 +6089,10 @@
         <v>356</v>
       </c>
       <c r="C89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D89" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -6102,16 +6100,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B90" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C90" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -6125,10 +6123,10 @@
         <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -6142,10 +6140,10 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D92" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -6159,10 +6157,10 @@
         <v>280</v>
       </c>
       <c r="C93" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -6176,10 +6174,10 @@
         <v>357</v>
       </c>
       <c r="C94" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -6187,16 +6185,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B95" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C95" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -6204,16 +6202,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B96" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C96" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -6221,16 +6219,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B97" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C97" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -6244,10 +6242,10 @@
         <v>358</v>
       </c>
       <c r="C98" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D98" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E98">
         <v>20</v>
@@ -6261,10 +6259,10 @@
         <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D99" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -6272,16 +6270,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B100" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C100" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D100" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -6289,16 +6287,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B101" t="s">
         <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D101" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -6312,10 +6310,10 @@
         <v>359</v>
       </c>
       <c r="C102" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D102" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E102">
         <v>20</v>
@@ -6329,10 +6327,10 @@
         <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -6340,16 +6338,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C104" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D104" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E104">
         <v>20</v>
@@ -6363,10 +6361,10 @@
         <v>360</v>
       </c>
       <c r="C105" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -6380,10 +6378,10 @@
         <v>361</v>
       </c>
       <c r="C106" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -6397,10 +6395,10 @@
         <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D107" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E107">
         <v>20</v>
@@ -6414,10 +6412,10 @@
         <v>362</v>
       </c>
       <c r="C108" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D108" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E108">
         <v>20</v>
@@ -6425,16 +6423,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B109" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C109" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D109" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E109">
         <v>20</v>
@@ -6442,16 +6440,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C110" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D110" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E110">
         <v>20</v>
@@ -6459,16 +6457,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C111" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D111" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -6479,13 +6477,13 @@
         <v>224</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C112" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D112" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E112">
         <v>20</v>
@@ -6496,13 +6494,13 @@
         <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C113" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D113" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -6516,10 +6514,10 @@
         <v>363</v>
       </c>
       <c r="C114" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E114">
         <v>20</v>
@@ -6533,10 +6531,10 @@
         <v>364</v>
       </c>
       <c r="C115" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D115" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E115">
         <v>20</v>
@@ -6550,10 +6548,10 @@
         <v>365</v>
       </c>
       <c r="C116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D116" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E116">
         <v>20</v>
@@ -6567,10 +6565,10 @@
         <v>366</v>
       </c>
       <c r="C117" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -6584,10 +6582,10 @@
         <v>367</v>
       </c>
       <c r="C118" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D118" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E118">
         <v>20</v>
@@ -6601,10 +6599,10 @@
         <v>368</v>
       </c>
       <c r="C119" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D119" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E119">
         <v>20</v>
@@ -6618,10 +6616,10 @@
         <v>295</v>
       </c>
       <c r="C120" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E120">
         <v>20</v>
@@ -6635,10 +6633,10 @@
         <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D121" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E121">
         <v>20</v>
@@ -6652,10 +6650,10 @@
         <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D122" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E122">
         <v>20</v>
@@ -6669,10 +6667,10 @@
         <v>286</v>
       </c>
       <c r="C123" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D123" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -6686,10 +6684,10 @@
         <v>288</v>
       </c>
       <c r="C124" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D124" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E124">
         <v>20</v>
@@ -6703,10 +6701,10 @@
         <v>478</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>695</v>
+        <v>1247</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -6718,10 +6716,10 @@
         <v>289</v>
       </c>
       <c r="C126" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D126" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E126">
         <v>20</v>
@@ -6735,10 +6733,10 @@
         <v>290</v>
       </c>
       <c r="C127" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D127" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E127">
         <v>20</v>
@@ -6746,16 +6744,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C128" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D128" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E128">
         <v>20</v>
@@ -6769,10 +6767,10 @@
         <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D129" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E129">
         <v>20</v>
@@ -6786,10 +6784,10 @@
         <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D130" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E130">
         <v>20</v>
@@ -6803,10 +6801,10 @@
         <v>293</v>
       </c>
       <c r="C131" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D131" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E131">
         <v>20</v>
@@ -6820,10 +6818,10 @@
         <v>294</v>
       </c>
       <c r="C132" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D132" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E132">
         <v>20</v>
@@ -6837,10 +6835,10 @@
         <v>370</v>
       </c>
       <c r="C133" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D133" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -6854,10 +6852,10 @@
         <v>297</v>
       </c>
       <c r="C134" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E134">
         <v>20</v>
@@ -6871,10 +6869,10 @@
         <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D135" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E135">
         <v>20</v>
@@ -6888,10 +6886,10 @@
         <v>479</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>708</v>
+        <v>1248</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -6903,10 +6901,10 @@
         <v>298</v>
       </c>
       <c r="C137" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D137" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -6914,16 +6912,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B138" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C138" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D138" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E138">
         <v>20</v>
@@ -6937,10 +6935,10 @@
         <v>299</v>
       </c>
       <c r="C139" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D139" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -6948,16 +6946,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B140" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C140" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D140" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E140">
         <v>20</v>
@@ -6965,16 +6963,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B141" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C141" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D141" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E141">
         <v>20</v>
@@ -6982,16 +6980,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B142" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C142" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D142" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E142">
         <v>20</v>
@@ -7005,10 +7003,10 @@
         <v>371</v>
       </c>
       <c r="C143" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D143" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -7022,10 +7020,10 @@
         <v>372</v>
       </c>
       <c r="C144" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D144" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -7039,10 +7037,10 @@
         <v>300</v>
       </c>
       <c r="C145" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D145" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E145">
         <v>20</v>
@@ -7056,10 +7054,10 @@
         <v>373</v>
       </c>
       <c r="C146" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D146" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E146">
         <v>20</v>
@@ -7067,16 +7065,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B147" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C147" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D147" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E147">
         <v>20</v>
@@ -7090,10 +7088,10 @@
         <v>374</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D148" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E148">
         <v>20</v>
@@ -7107,10 +7105,10 @@
         <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E149">
         <v>20</v>
@@ -7124,10 +7122,10 @@
         <v>375</v>
       </c>
       <c r="C150" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D150" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E150">
         <v>20</v>
@@ -7135,16 +7133,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B151" t="s">
         <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D151" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E151">
         <v>20</v>
@@ -7158,10 +7156,10 @@
         <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D152" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E152">
         <v>20</v>
@@ -7169,16 +7167,16 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B153" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C153" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D153" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -7192,10 +7190,10 @@
         <v>377</v>
       </c>
       <c r="C154" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E154">
         <v>20</v>
@@ -7203,16 +7201,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B155" t="s">
         <v>377</v>
       </c>
       <c r="C155" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D155" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E155">
         <v>20</v>
@@ -7226,10 +7224,10 @@
         <v>378</v>
       </c>
       <c r="C156" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D156" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -7243,10 +7241,10 @@
         <v>302</v>
       </c>
       <c r="C157" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D157" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E157">
         <v>20</v>
@@ -7254,16 +7252,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B158" t="s">
         <v>302</v>
       </c>
       <c r="C158" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D158" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E158">
         <v>20</v>
@@ -7277,10 +7275,10 @@
         <v>303</v>
       </c>
       <c r="C159" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D159" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E159">
         <v>20</v>
@@ -7288,16 +7286,16 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B160" t="s">
         <v>303</v>
       </c>
       <c r="C160" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D160" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E160">
         <v>20</v>
@@ -7463,8 +7461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7477,33 +7475,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -7512,28 +7510,28 @@
         <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -7547,10 +7545,10 @@
         <v>379</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7561,10 +7559,10 @@
         <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
@@ -7572,16 +7570,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -7589,16 +7587,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -7606,16 +7604,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C9" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -7629,10 +7627,10 @@
         <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -7646,10 +7644,10 @@
         <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -7663,10 +7661,10 @@
         <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -7674,16 +7672,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C13" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -7697,10 +7695,10 @@
         <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -7708,16 +7706,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C15" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -7725,16 +7723,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C16" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -7742,16 +7740,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -7759,16 +7757,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C18" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -7776,16 +7774,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C19" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -7793,16 +7791,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C20" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -7813,13 +7811,13 @@
         <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C21" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -7827,16 +7825,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -7844,16 +7842,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C23" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -7861,16 +7859,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C24" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -7884,10 +7882,10 @@
         <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -7901,10 +7899,10 @@
         <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -7918,10 +7916,10 @@
         <v>384</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7932,10 +7930,10 @@
         <v>384</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E28" s="2">
         <v>20</v>
@@ -7943,16 +7941,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -7966,10 +7964,10 @@
         <v>306</v>
       </c>
       <c r="C30" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -7983,10 +7981,10 @@
         <v>312</v>
       </c>
       <c r="C31" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -8000,10 +7998,10 @@
         <v>385</v>
       </c>
       <c r="C32" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -8017,10 +8015,10 @@
         <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -8034,10 +8032,10 @@
         <v>311</v>
       </c>
       <c r="C34" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D34" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -8051,10 +8049,10 @@
         <v>387</v>
       </c>
       <c r="C35" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D35" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -8068,10 +8066,10 @@
         <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -8085,10 +8083,10 @@
         <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -8102,10 +8100,10 @@
         <v>390</v>
       </c>
       <c r="C38" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -8119,10 +8117,10 @@
         <v>391</v>
       </c>
       <c r="C39" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -8136,10 +8134,10 @@
         <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -8147,16 +8145,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C41" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -8170,10 +8168,10 @@
         <v>307</v>
       </c>
       <c r="C42" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -8181,16 +8179,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C43" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -8204,10 +8202,10 @@
         <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -8221,10 +8219,10 @@
         <v>309</v>
       </c>
       <c r="C45" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -8238,10 +8236,10 @@
         <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -8255,10 +8253,10 @@
         <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -8266,16 +8264,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C48" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -8283,16 +8281,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C49" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -8306,10 +8304,10 @@
         <v>393</v>
       </c>
       <c r="C50" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -8323,10 +8321,10 @@
         <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -8340,10 +8338,10 @@
         <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -8357,10 +8355,10 @@
         <v>396</v>
       </c>
       <c r="C53" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D53" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -8374,10 +8372,10 @@
         <v>397</v>
       </c>
       <c r="C54" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D54" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -8391,10 +8389,10 @@
         <v>398</v>
       </c>
       <c r="C55" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -8408,10 +8406,10 @@
         <v>399</v>
       </c>
       <c r="C56" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -8425,10 +8423,10 @@
         <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -8442,10 +8440,10 @@
         <v>315</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -8456,10 +8454,10 @@
         <v>315</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E59" s="2">
         <v>20</v>
@@ -8473,10 +8471,10 @@
         <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D60" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E60">
         <v>20</v>
@@ -8484,16 +8482,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -8507,10 +8505,10 @@
         <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D62" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -8518,16 +8516,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -8541,10 +8539,10 @@
         <v>401</v>
       </c>
       <c r="C64" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E64">
         <v>20</v>
@@ -8558,10 +8556,10 @@
         <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -8569,16 +8567,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C66" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -8592,10 +8590,10 @@
         <v>318</v>
       </c>
       <c r="C67" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E67">
         <v>20</v>
@@ -8603,16 +8601,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C68" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D68" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E68">
         <v>20</v>
@@ -8626,10 +8624,10 @@
         <v>402</v>
       </c>
       <c r="C69" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D69" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -8637,16 +8635,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -8657,10 +8655,10 @@
         <v>319</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E71" s="2">
         <v>20</v>
@@ -8674,10 +8672,10 @@
         <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -8685,16 +8683,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C73" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D73" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -8708,10 +8706,10 @@
         <v>320</v>
       </c>
       <c r="C74" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -8725,10 +8723,10 @@
         <v>320</v>
       </c>
       <c r="C75" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -8736,16 +8734,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C76" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D76" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -8753,16 +8751,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C77" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D77" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -8770,16 +8768,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C78" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E78">
         <v>20</v>
@@ -8787,16 +8785,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C79" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -8804,16 +8802,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C80" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -8821,16 +8819,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C81" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -8838,16 +8836,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C82" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -8855,16 +8853,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C83" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -8872,16 +8870,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C84" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -8889,16 +8887,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C85" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -8906,16 +8904,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C86" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -8923,16 +8921,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C87" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -8946,10 +8944,10 @@
         <v>405</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>877</v>
+        <v>1249</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -8961,24 +8959,24 @@
         <v>404</v>
       </c>
       <c r="C89" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D89" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D90" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -8989,24 +8987,24 @@
         <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D91" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C92" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D92" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -9017,10 +9015,10 @@
         <v>407</v>
       </c>
       <c r="C93" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D93" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -9034,10 +9032,10 @@
         <v>408</v>
       </c>
       <c r="C94" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -9051,10 +9049,10 @@
         <v>409</v>
       </c>
       <c r="C95" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -9068,10 +9066,10 @@
         <v>410</v>
       </c>
       <c r="C96" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -9134,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView topLeftCell="B196" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C86"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9148,33 +9146,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9183,28 +9181,28 @@
         <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -9218,10 +9216,10 @@
         <v>481</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>886</v>
+        <v>1254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9232,10 +9230,10 @@
         <v>321</v>
       </c>
       <c r="C6" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -9243,16 +9241,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C7" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -9266,10 +9264,10 @@
         <v>411</v>
       </c>
       <c r="C8" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -9277,16 +9275,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -9294,16 +9292,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B10" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C10" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -9311,16 +9309,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B11" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -9334,10 +9332,10 @@
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -9345,16 +9343,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B13" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C13" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -9368,10 +9366,10 @@
         <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -9385,10 +9383,10 @@
         <v>426</v>
       </c>
       <c r="C15" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -9402,10 +9400,10 @@
         <v>427</v>
       </c>
       <c r="C16" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -9419,10 +9417,10 @@
         <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="D17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -9436,10 +9434,10 @@
         <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -9453,10 +9451,10 @@
         <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -9464,16 +9462,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B20" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C20" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="D20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -9481,16 +9479,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B21" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C21" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -9504,10 +9502,10 @@
         <v>425</v>
       </c>
       <c r="C22" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -9515,16 +9513,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B23" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C23" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -9532,16 +9530,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B24" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C24" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="D24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -9549,16 +9547,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B25" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C25" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="D25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -9566,16 +9564,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B26" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -9583,16 +9581,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B27" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C27" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="D27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -9600,16 +9598,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B28" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C28" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -9617,16 +9615,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B29" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C29" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="D29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -9640,10 +9638,10 @@
         <v>432</v>
       </c>
       <c r="C30" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="D30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -9657,10 +9655,13 @@
         <v>429</v>
       </c>
       <c r="C31" t="s">
-        <v>938</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>565</v>
+        <v>931</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9671,10 +9672,10 @@
         <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -9682,16 +9683,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B33" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C33" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -9699,16 +9700,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B34" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C34" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="D34" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -9716,16 +9717,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B35" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C35" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D35" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -9733,16 +9734,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B36" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C36" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -9750,16 +9751,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B37" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C37" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -9767,16 +9768,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B38" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C38" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -9784,16 +9785,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B39" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C39" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -9801,16 +9802,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B40" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C40" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="D40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -9818,16 +9819,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B41" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C41" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -9835,16 +9836,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B42" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C42" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -9858,10 +9859,10 @@
         <v>323</v>
       </c>
       <c r="C43" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -9875,10 +9876,10 @@
         <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -9892,10 +9893,10 @@
         <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -9909,10 +9910,10 @@
         <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -9920,30 +9921,33 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B47" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C47" t="s">
-        <v>976</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>565</v>
+        <v>969</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B48" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="C48" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -9951,16 +9955,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B49" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C49" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -9968,16 +9972,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B50" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C50" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -9985,16 +9989,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B51" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C51" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -10002,16 +10006,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B52" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C52" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -10019,16 +10023,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B53" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="C53" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="D53" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -10036,16 +10040,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B54" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="C54" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="D54" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -10053,16 +10057,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B55" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C55" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -10070,16 +10074,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B56" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="C56" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -10087,16 +10091,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B57" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="C57" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -10110,10 +10114,10 @@
         <v>435</v>
       </c>
       <c r="C58" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D58" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -10127,10 +10131,10 @@
         <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D59" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -10138,30 +10142,33 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B60" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C60" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>565</v>
+        <v>1004</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B61" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C61" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -10175,10 +10182,10 @@
         <v>437</v>
       </c>
       <c r="C62" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D62" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -10192,10 +10199,10 @@
         <v>325</v>
       </c>
       <c r="C63" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -10209,10 +10216,10 @@
         <v>326</v>
       </c>
       <c r="C64" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E64">
         <v>20</v>
@@ -10226,10 +10233,10 @@
         <v>327</v>
       </c>
       <c r="C65" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="D65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -10237,16 +10244,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B66" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C66" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -10254,16 +10261,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B67" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C67" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="D67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E67">
         <v>20</v>
@@ -10271,16 +10278,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B68" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C68" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D68" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E68">
         <v>20</v>
@@ -10288,16 +10295,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B69" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C69" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D69" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -10305,16 +10312,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B70" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C70" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D70" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -10322,16 +10329,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B71" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C71" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D71" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E71">
         <v>20</v>
@@ -10339,16 +10346,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B72" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C72" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -10356,16 +10363,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B73" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="C73" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D73" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -10373,16 +10380,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="B74" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="C74" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -10390,16 +10397,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B75" t="s">
         <v>327</v>
       </c>
       <c r="C75" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -10413,10 +10420,10 @@
         <v>328</v>
       </c>
       <c r="C76" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D76" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -10430,10 +10437,10 @@
         <v>329</v>
       </c>
       <c r="C77" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="D77" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -10447,25 +10454,25 @@
         <v>483</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1050</v>
+        <v>1255</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B79" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C79" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -10473,16 +10480,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B80" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C80" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="D80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -10496,10 +10503,10 @@
         <v>330</v>
       </c>
       <c r="C81" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -10507,16 +10514,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="C82" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -10524,16 +10531,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B83" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C83" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="D83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -10541,16 +10548,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B84" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="C84" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="D84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -10561,13 +10568,13 @@
         <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C85" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -10575,16 +10582,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="B86" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="C86" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -10598,10 +10605,10 @@
         <v>440</v>
       </c>
       <c r="C87" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -10609,16 +10616,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="B88" t="s">
         <v>440</v>
       </c>
       <c r="C88" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="D88" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -10632,10 +10639,10 @@
         <v>331</v>
       </c>
       <c r="C89" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D89" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -10643,16 +10650,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B90" t="s">
         <v>331</v>
       </c>
       <c r="C90" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -10666,10 +10673,10 @@
         <v>472</v>
       </c>
       <c r="C91" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -10683,10 +10690,10 @@
         <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D92" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -10700,10 +10707,10 @@
         <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="D93" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -10711,16 +10718,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="B94" t="s">
         <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="D94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -10734,10 +10741,10 @@
         <v>334</v>
       </c>
       <c r="C95" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -10745,16 +10752,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B96" t="s">
         <v>334</v>
       </c>
       <c r="C96" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="D96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -10762,16 +10769,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B97" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="C97" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="D97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -10779,16 +10786,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B98" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="C98" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="D98" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E98">
         <v>20</v>
@@ -10802,10 +10809,10 @@
         <v>421</v>
       </c>
       <c r="C99" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D99" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -10819,10 +10826,10 @@
         <v>423</v>
       </c>
       <c r="C100" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D100" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -10830,16 +10837,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="8" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="B101" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C101" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D101" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -10847,16 +10854,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="B102" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="C102" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="D102" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E102">
         <v>20</v>
@@ -10870,10 +10877,10 @@
         <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -10887,10 +10894,10 @@
         <v>422</v>
       </c>
       <c r="C104" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="D104" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E104">
         <v>20</v>
@@ -10901,13 +10908,13 @@
         <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C105" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -10921,10 +10928,10 @@
         <v>336</v>
       </c>
       <c r="C106" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -10938,25 +10945,25 @@
         <v>485</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1097</v>
+        <v>1256</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="B108" t="s">
         <v>413</v>
       </c>
       <c r="C108" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="D108" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E108">
         <v>20</v>
@@ -10964,16 +10971,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="B109" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="C109" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="D109" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E109">
         <v>20</v>
@@ -10987,10 +10994,10 @@
         <v>424</v>
       </c>
       <c r="C110" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="D110" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E110">
         <v>20</v>
@@ -11004,10 +11011,10 @@
         <v>414</v>
       </c>
       <c r="C111" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="D111" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -11015,16 +11022,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="8" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="B112" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C112" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="D112" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E112">
         <v>20</v>
@@ -11038,10 +11045,10 @@
         <v>415</v>
       </c>
       <c r="C113" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="D113" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -11049,16 +11056,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="B114" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="C114" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E114">
         <v>20</v>
@@ -11066,16 +11073,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="B115" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="C115" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="D115" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E115">
         <v>20</v>
@@ -11089,10 +11096,10 @@
         <v>416</v>
       </c>
       <c r="C116" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="D116" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E116">
         <v>20</v>
@@ -11106,10 +11113,10 @@
         <v>417</v>
       </c>
       <c r="C117" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="D117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -11123,10 +11130,10 @@
         <v>418</v>
       </c>
       <c r="C118" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D118" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E118">
         <v>20</v>
@@ -11134,16 +11141,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="8" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="B119" t="s">
         <v>418</v>
       </c>
       <c r="C119" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D119" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E119">
         <v>20</v>
@@ -11157,10 +11164,10 @@
         <v>419</v>
       </c>
       <c r="C120" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E120">
         <v>20</v>
@@ -11168,16 +11175,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="B121" t="s">
         <v>419</v>
       </c>
       <c r="C121" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="D121" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E121">
         <v>20</v>
@@ -11185,16 +11192,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
+        <v>565</v>
+      </c>
+      <c r="B122" t="s">
+        <v>566</v>
+      </c>
+      <c r="C122" t="s">
         <v>567</v>
       </c>
-      <c r="B122" t="s">
-        <v>568</v>
-      </c>
-      <c r="C122" t="s">
-        <v>569</v>
-      </c>
       <c r="D122" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E122">
         <v>20</v>
@@ -11202,16 +11209,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="B123" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="C123" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D123" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -11225,10 +11232,10 @@
         <v>438</v>
       </c>
       <c r="C124" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="D124" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E124">
         <v>20</v>
@@ -11242,10 +11249,10 @@
         <v>420</v>
       </c>
       <c r="C125" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="D125" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E125">
         <v>20</v>
@@ -11259,10 +11266,10 @@
         <v>471</v>
       </c>
       <c r="C126" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="D126" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E126">
         <v>20</v>
@@ -11273,13 +11280,13 @@
         <v>207</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1126</v>
+        <v>1257</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -11291,10 +11298,10 @@
         <v>337</v>
       </c>
       <c r="C128" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="D128" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E128">
         <v>20</v>
@@ -11302,16 +11309,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="B129" t="s">
         <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="D129" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E129">
         <v>20</v>
@@ -11325,10 +11332,10 @@
         <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="D130" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E130">
         <v>20</v>
@@ -11336,16 +11343,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="B131" t="s">
         <v>338</v>
       </c>
       <c r="C131" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="D131" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E131">
         <v>20</v>
@@ -11359,10 +11366,10 @@
         <v>339</v>
       </c>
       <c r="C132" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D132" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E132">
         <v>20</v>
@@ -11370,16 +11377,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="B133" t="s">
         <v>339</v>
       </c>
       <c r="C133" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D133" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -11393,10 +11400,10 @@
         <v>340</v>
       </c>
       <c r="C134" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="D134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E134">
         <v>20</v>
@@ -11404,16 +11411,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="B135" t="s">
         <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="D135" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E135">
         <v>20</v>
@@ -11427,10 +11434,10 @@
         <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D136" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E136">
         <v>20</v>
@@ -11444,10 +11451,10 @@
         <v>441</v>
       </c>
       <c r="C137" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D137" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -11455,16 +11462,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="B138" t="s">
         <v>441</v>
       </c>
       <c r="C138" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D138" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E138">
         <v>20</v>
@@ -11478,10 +11485,10 @@
         <v>442</v>
       </c>
       <c r="C139" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="D139" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -11495,10 +11502,10 @@
         <v>439</v>
       </c>
       <c r="C140" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="D140" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E140">
         <v>20</v>
@@ -11506,16 +11513,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B141" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="C141" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="D141" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E141">
         <v>20</v>
@@ -11523,16 +11530,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B142" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C142" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="D142" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E142">
         <v>20</v>
@@ -11540,16 +11547,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B143" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="C143" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="D143" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -11557,16 +11564,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="B144" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="C144" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="D144" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -11580,10 +11587,10 @@
         <v>443</v>
       </c>
       <c r="C145" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="D145" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E145">
         <v>20</v>
@@ -11591,16 +11598,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="B146" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="C146" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="D146" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E146">
         <v>20</v>
@@ -11608,16 +11615,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="B147" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="C147" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="D147" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E147">
         <v>20</v>
@@ -11625,16 +11632,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B148" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="C148" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="D148" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E148">
         <v>20</v>
@@ -11642,16 +11649,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B149" t="s">
         <v>444</v>
       </c>
       <c r="C149" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="D149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E149">
         <v>20</v>
@@ -11665,10 +11672,10 @@
         <v>444</v>
       </c>
       <c r="C150" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="D150" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E150">
         <v>20</v>
@@ -11682,10 +11689,10 @@
         <v>469</v>
       </c>
       <c r="C151" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="D151" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E151">
         <v>20</v>
@@ -11693,16 +11700,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B152" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="C152" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="D152" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E152">
         <v>20</v>
@@ -11716,10 +11723,10 @@
         <v>470</v>
       </c>
       <c r="C153" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="D153" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -11733,10 +11740,10 @@
         <v>445</v>
       </c>
       <c r="C154" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E154">
         <v>20</v>
@@ -11750,10 +11757,10 @@
         <v>446</v>
       </c>
       <c r="C155" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="D155" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E155">
         <v>20</v>
@@ -11761,16 +11768,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="8" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="B156" t="s">
         <v>446</v>
       </c>
       <c r="C156" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="D156" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -11778,16 +11785,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B157" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C157" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="D157" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E157">
         <v>20</v>
@@ -11801,10 +11808,10 @@
         <v>447</v>
       </c>
       <c r="C158" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="D158" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E158">
         <v>20</v>
@@ -11818,10 +11825,10 @@
         <v>448</v>
       </c>
       <c r="C159" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="D159" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E159">
         <v>20</v>
@@ -11829,16 +11836,16 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="B160" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C160" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="D160" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E160">
         <v>20</v>
@@ -11852,10 +11859,10 @@
         <v>449</v>
       </c>
       <c r="C161" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="D161" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E161">
         <v>20</v>
@@ -11869,10 +11876,10 @@
         <v>450</v>
       </c>
       <c r="C162" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="D162" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E162">
         <v>20</v>
@@ -11886,10 +11893,10 @@
         <v>451</v>
       </c>
       <c r="C163" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="D163" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -11903,10 +11910,10 @@
         <v>452</v>
       </c>
       <c r="C164" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="D164" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E164">
         <v>20</v>
@@ -11914,16 +11921,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="B165" t="s">
         <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="D165" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E165">
         <v>20</v>
@@ -11937,10 +11944,10 @@
         <v>453</v>
       </c>
       <c r="C166" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="D166" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E166">
         <v>20</v>
@@ -11948,16 +11955,16 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="8" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="B167" t="s">
         <v>453</v>
       </c>
       <c r="C167" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="D167" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E167">
         <v>20</v>
@@ -11971,10 +11978,10 @@
         <v>454</v>
       </c>
       <c r="C168" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="D168" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E168">
         <v>20</v>
@@ -11982,16 +11989,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="B169" t="s">
         <v>454</v>
       </c>
       <c r="C169" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="D169" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E169">
         <v>20</v>
@@ -12005,10 +12012,10 @@
         <v>455</v>
       </c>
       <c r="C170" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="D170" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -12016,16 +12023,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="B171" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="C171" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="D171" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E171">
         <v>20</v>
@@ -12033,16 +12040,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="B172" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="C172" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="D172" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E172">
         <v>20</v>
@@ -12050,16 +12057,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B173" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="C173" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="D173" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -12067,16 +12074,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="B174" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="C174" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="D174" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E174">
         <v>20</v>
@@ -12084,16 +12091,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B175" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="C175" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="D175" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -12101,16 +12108,16 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="B176" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="C176" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="D176" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E176">
         <v>20</v>
@@ -12118,16 +12125,16 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B177" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="C177" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="D177" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E177">
         <v>20</v>
@@ -12135,16 +12142,16 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="B178" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="C178" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="D178" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -12152,16 +12159,16 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B179" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C179" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="D179" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E179">
         <v>20</v>
@@ -12169,16 +12176,16 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="B180" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="C180" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="D180" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E180">
         <v>20</v>
@@ -12192,10 +12199,10 @@
         <v>456</v>
       </c>
       <c r="C181" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="D181" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E181">
         <v>20</v>
@@ -12209,10 +12216,10 @@
         <v>457</v>
       </c>
       <c r="C182" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="D182" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E182">
         <v>20</v>
@@ -12220,16 +12227,16 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="B183" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="C183" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="D183" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -12237,16 +12244,16 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="B184" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="C184" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="D184" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E184">
         <v>20</v>
@@ -12260,10 +12267,10 @@
         <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="D185" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E185">
         <v>20</v>
@@ -12277,10 +12284,10 @@
         <v>459</v>
       </c>
       <c r="C186" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="D186" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E186">
         <v>20</v>
@@ -12294,10 +12301,10 @@
         <v>468</v>
       </c>
       <c r="C187" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="D187" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E187">
         <v>20</v>
@@ -12311,10 +12318,10 @@
         <v>460</v>
       </c>
       <c r="C188" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="D188" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E188">
         <v>20</v>
@@ -12322,16 +12329,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B189" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C189" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="D189" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E189">
         <v>20</v>
@@ -12339,16 +12346,16 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="B190" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C190" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="D190" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E190">
         <v>20</v>
@@ -12356,16 +12363,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B191" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C191" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="D191" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E191">
         <v>20</v>
@@ -12373,16 +12380,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B192" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C192" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="D192" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E192">
         <v>20</v>
@@ -12396,10 +12403,10 @@
         <v>461</v>
       </c>
       <c r="C193" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="D193" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -12413,10 +12420,10 @@
         <v>462</v>
       </c>
       <c r="C194" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="D194" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E194">
         <v>20</v>
@@ -12430,10 +12437,10 @@
         <v>463</v>
       </c>
       <c r="C195" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="D195" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -12441,16 +12448,16 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B196" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="C196" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="D196" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E196">
         <v>20</v>
@@ -12464,10 +12471,10 @@
         <v>464</v>
       </c>
       <c r="C197" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="D197" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E197">
         <v>20</v>
@@ -12481,10 +12488,10 @@
         <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="D198" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -12492,16 +12499,16 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="B199" t="s">
         <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="D199" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E199">
         <v>20</v>
@@ -12515,10 +12522,10 @@
         <v>466</v>
       </c>
       <c r="C200" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="D200" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -12532,10 +12539,10 @@
         <v>467</v>
       </c>
       <c r="C201" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="D201" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E201">
         <v>20</v>
@@ -12543,16 +12550,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="B202" t="s">
         <v>467</v>
       </c>
       <c r="C202" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="D202" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E202">
         <v>20</v>
@@ -12566,10 +12573,10 @@
         <v>338</v>
       </c>
       <c r="C203" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="D203" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E203">
         <v>20</v>
@@ -12583,10 +12590,10 @@
         <v>338</v>
       </c>
       <c r="C204" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="D204" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E204">
         <v>20</v>
